--- a/Ecopulpers/Sensitivity Results/Ecopulpers - Price petroleum in Kenya.xlsx
+++ b/Ecopulpers/Sensitivity Results/Ecopulpers - Price petroleum in Kenya.xlsx
@@ -634,70 +634,70 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E4">
-        <v>0.5305043254047632</v>
+        <v>51.43841178994626</v>
       </c>
       <c r="F4">
-        <v>0.5305043698711258</v>
+        <v>0.5305117164926527</v>
       </c>
       <c r="G4">
-        <v>1.884998610365693</v>
+        <v>1.884972506566402</v>
       </c>
       <c r="H4">
-        <v>1.456107837322634</v>
+        <v>141.1197404945415</v>
       </c>
       <c r="I4">
-        <v>0.0002513596264179796</v>
+        <v>0.02437799899780657</v>
       </c>
       <c r="J4">
-        <v>0.003194514428287221</v>
+        <v>0.3097209488469161</v>
       </c>
       <c r="K4">
-        <v>0.05001583648845553</v>
+        <v>4.849417570978403</v>
       </c>
       <c r="L4">
-        <v>0.01481692283414304</v>
+        <v>1.436524677090347</v>
       </c>
       <c r="M4">
-        <v>0.05799982557073236</v>
+        <v>5.623218013439327</v>
       </c>
       <c r="N4">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O4">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P4">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q4">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R4">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S4">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T4">
-        <v>-14.55883042694768</v>
+        <v>-1410.979444074008</v>
       </c>
       <c r="U4">
-        <v>-0.000451308318588417</v>
+        <v>-0.04382055122732709</v>
       </c>
       <c r="V4">
-        <v>-0.0319361618030598</v>
+        <v>-3.096338547307823</v>
       </c>
       <c r="W4">
-        <v>-0.2082755600567907</v>
+        <v>-20.19321897765622</v>
       </c>
       <c r="X4">
-        <v>-0.5233067246153951</v>
+        <v>-50.73536927159876</v>
       </c>
       <c r="Y4">
-        <v>0.3802489961963147</v>
+        <v>36.8701843409799</v>
       </c>
     </row>
     <row r="5" spans="1:25">
@@ -707,70 +707,70 @@
         <v>31</v>
       </c>
       <c r="D5">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E5">
-        <v>0.5304338801652193</v>
+        <v>51.43158450908959</v>
       </c>
       <c r="F5">
-        <v>0.5304339246256773</v>
+        <v>0.530441303111675</v>
       </c>
       <c r="G5">
-        <v>1.885248951046431</v>
+        <v>1.885222727064803</v>
       </c>
       <c r="H5">
-        <v>1.456107599078678</v>
+        <v>141.1197174044064</v>
       </c>
       <c r="I5">
-        <v>0.0002512681057851296</v>
+        <v>0.02436912961275084</v>
       </c>
       <c r="J5">
-        <v>0.003194513868038484</v>
+        <v>0.3097208946055616</v>
       </c>
       <c r="K5">
-        <v>0.04996739840134978</v>
+        <v>4.844723212067038</v>
       </c>
       <c r="L5">
-        <v>0.01481297449208796</v>
+        <v>1.43614204833284</v>
       </c>
       <c r="M5">
-        <v>0.0579985580407083</v>
+        <v>5.623095151036978</v>
       </c>
       <c r="N5">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O5">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P5">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q5">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R5">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S5">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T5">
-        <v>-14.55882804450812</v>
+        <v>-1410.979213172657</v>
       </c>
       <c r="U5">
-        <v>-0.000450393112259917</v>
+        <v>-0.04373185737676977</v>
       </c>
       <c r="V5">
-        <v>-0.03193615620057244</v>
+        <v>-3.096338004894278</v>
       </c>
       <c r="W5">
-        <v>-0.2077911791857332</v>
+        <v>-20.14627538854256</v>
       </c>
       <c r="X5">
-        <v>-0.5232940493151546</v>
+        <v>-50.73414064757526</v>
       </c>
       <c r="Y5">
-        <v>0.3802884796168655</v>
+        <v>36.87401062855497</v>
       </c>
     </row>
     <row r="6" spans="1:25">
@@ -780,70 +780,70 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E6">
-        <v>0.5303634339943528</v>
+        <v>51.42475722637028</v>
       </c>
       <c r="F6">
-        <v>0.5303634784489061</v>
+        <v>0.530370889711487</v>
       </c>
       <c r="G6">
-        <v>1.885499361540856</v>
+        <v>1.88547301407131</v>
       </c>
       <c r="H6">
-        <v>1.45610736082017</v>
+        <v>141.1196943142422</v>
       </c>
       <c r="I6">
-        <v>0.0002511765906092478</v>
+        <v>0.02436026022587612</v>
       </c>
       <c r="J6">
-        <v>0.003194513308699243</v>
+        <v>0.3097208403623881</v>
       </c>
       <c r="K6">
-        <v>0.04991896054707468</v>
+        <v>4.840028852922842</v>
       </c>
       <c r="L6">
-        <v>0.01480902638286352</v>
+        <v>1.435759419109672</v>
       </c>
       <c r="M6">
-        <v>0.05799729004502296</v>
+        <v>5.622972288634628</v>
       </c>
       <c r="N6">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O6">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P6">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q6">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R6">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S6">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T6">
-        <v>-14.55882566192304</v>
+        <v>-1410.978982271015</v>
       </c>
       <c r="U6">
-        <v>-0.000449477960501099</v>
+        <v>-0.04364316350802255</v>
       </c>
       <c r="V6">
-        <v>-0.03193615060718002</v>
+        <v>-3.096337462462543</v>
       </c>
       <c r="W6">
-        <v>-0.2073068006429821</v>
+        <v>-20.0993317971006</v>
       </c>
       <c r="X6">
-        <v>-0.5232813693583012</v>
+        <v>-50.73291202355176</v>
       </c>
       <c r="Y6">
-        <v>0.3803279607091099</v>
+        <v>36.87783692078665</v>
       </c>
     </row>
     <row r="7" spans="1:25">
@@ -853,70 +853,70 @@
         <v>33</v>
       </c>
       <c r="D7">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E7">
-        <v>0.5302929868921638</v>
+        <v>51.41792994551361</v>
       </c>
       <c r="F7">
-        <v>0.5302930313408122</v>
+        <v>0.5303004763305094</v>
       </c>
       <c r="G7">
-        <v>1.88574984187811</v>
+        <v>1.885723367475821</v>
       </c>
       <c r="H7">
-        <v>1.456107122576213</v>
+        <v>141.119671224078</v>
       </c>
       <c r="I7">
-        <v>0.0002510850736143766</v>
+        <v>0.02435139084082039</v>
       </c>
       <c r="J7">
-        <v>0.003194512749360001</v>
+        <v>0.3097207861219431</v>
       </c>
       <c r="K7">
-        <v>0.04987052269279957</v>
+        <v>4.835334494244307</v>
       </c>
       <c r="L7">
-        <v>0.01480507850646973</v>
+        <v>1.435376790584996</v>
       </c>
       <c r="M7">
-        <v>0.05799602251499891</v>
+        <v>5.622849426232278</v>
       </c>
       <c r="N7">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O7">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P7">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q7">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R7">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S7">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T7">
-        <v>-14.55882327948348</v>
+        <v>-1410.978751369374</v>
       </c>
       <c r="U7">
-        <v>-0.000448562790552387</v>
+        <v>-0.04355446965746523</v>
       </c>
       <c r="V7">
-        <v>-0.03193614501378761</v>
+        <v>-3.096336920058093</v>
       </c>
       <c r="W7">
-        <v>-0.2068224221002311</v>
+        <v>-20.05238821031526</v>
       </c>
       <c r="X7">
-        <v>-0.5232686940580606</v>
+        <v>-50.73168339952826</v>
       </c>
       <c r="Y7">
-        <v>0.3803674394730479</v>
+        <v>36.88166320603341</v>
       </c>
     </row>
     <row r="8" spans="1:25">
@@ -926,70 +926,70 @@
         <v>34</v>
       </c>
       <c r="D8">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E8">
-        <v>0.5302225425839424</v>
+        <v>51.41110266465694</v>
       </c>
       <c r="F8">
-        <v>0.5302225870266862</v>
+        <v>0.5302300629495318</v>
       </c>
       <c r="G8">
-        <v>1.886000378836501</v>
+        <v>1.885973787373089</v>
       </c>
       <c r="H8">
-        <v>1.456106884317705</v>
+        <v>141.119648133943</v>
       </c>
       <c r="I8">
-        <v>0.0002509935566195054</v>
+        <v>0.02434252145576465</v>
       </c>
       <c r="J8">
-        <v>0.003194512190930254</v>
+        <v>0.3097207318796791</v>
       </c>
       <c r="K8">
-        <v>0.04982208483852446</v>
+        <v>4.830640134867281</v>
       </c>
       <c r="L8">
-        <v>0.01480113039724529</v>
+        <v>1.43499416206032</v>
       </c>
       <c r="M8">
-        <v>0.05799475451931357</v>
+        <v>5.622726563364267</v>
       </c>
       <c r="N8">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O8">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P8">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q8">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R8">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S8">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T8">
-        <v>-14.5588208968984</v>
+        <v>-1410.978520468023</v>
       </c>
       <c r="U8">
-        <v>-0.000447647620603675</v>
+        <v>-0.04346577580690791</v>
       </c>
       <c r="V8">
-        <v>-0.03193613942949014</v>
+        <v>-3.096336377635453</v>
       </c>
       <c r="W8">
-        <v>-0.20633804355748</v>
+        <v>-20.00544461654499</v>
       </c>
       <c r="X8">
-        <v>-0.5232560141012073</v>
+        <v>-50.73045477084816</v>
       </c>
       <c r="Y8">
-        <v>0.3804069205652922</v>
+        <v>36.88548949128017</v>
       </c>
     </row>
     <row r="9" spans="1:25">
@@ -999,70 +999,70 @@
         <v>35</v>
       </c>
       <c r="D9">
-        <v>0.9999999161809683</v>
+        <v>96.95999200548977</v>
       </c>
       <c r="E9">
-        <v>0.5301520954817533</v>
+        <v>51.40427538286895</v>
       </c>
       <c r="F9">
-        <v>0.5301521399185923</v>
+        <v>0.5301596495589489</v>
       </c>
       <c r="G9">
-        <v>1.886250992316197</v>
+        <v>1.886224273823784</v>
       </c>
       <c r="H9">
-        <v>1.456106646044645</v>
+        <v>141.1196250437642</v>
       </c>
       <c r="I9">
-        <v>0.0002509020414436236</v>
+        <v>0.02433365207616589</v>
       </c>
       <c r="J9">
-        <v>0.003194511628862529</v>
+        <v>0.3097206776392341</v>
       </c>
       <c r="K9">
-        <v>0.04977364698424935</v>
+        <v>4.825945775955915</v>
       </c>
       <c r="L9">
-        <v>0.01479718252085149</v>
+        <v>1.434611532604322</v>
       </c>
       <c r="M9">
-        <v>0.05799348698928952</v>
+        <v>5.622603700961918</v>
       </c>
       <c r="N9">
-        <v>0.002247946278657764</v>
+        <v>0.2179608714068308</v>
       </c>
       <c r="O9">
-        <v>0.002062287945591379</v>
+        <v>0.1999594387507386</v>
       </c>
       <c r="P9">
-        <v>8.982479812402744e-06</v>
+        <v>0.0008709411613381235</v>
       </c>
       <c r="Q9">
-        <v>0.2918828048277646</v>
+        <v>28.30095673212782</v>
       </c>
       <c r="R9">
-        <v>0.05669153109192848</v>
+        <v>5.496810862794518</v>
       </c>
       <c r="S9">
-        <v>0.5284182245377451</v>
+        <v>51.23543111188337</v>
       </c>
       <c r="T9">
-        <v>-14.5588185141678</v>
+        <v>-1410.978289566236</v>
       </c>
       <c r="U9">
-        <v>-0.0004467324688448571</v>
+        <v>-0.04337708201092028</v>
       </c>
       <c r="V9">
-        <v>-0.03193613380881288</v>
+        <v>-3.096335835231002</v>
       </c>
       <c r="W9">
-        <v>-0.2058536650147289</v>
+        <v>-19.95850102743134</v>
       </c>
       <c r="X9">
-        <v>-0.5232433388009667</v>
+        <v>-50.72922614682466</v>
       </c>
       <c r="Y9">
-        <v>0.3804463993292302</v>
+        <v>36.88931578584015</v>
       </c>
     </row>
   </sheetData>
